--- a/BackTest/2020-01-21 BackTest DAC.xlsx
+++ b/BackTest/2020-01-21 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>1309324.2761</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>1.89</v>
       </c>
@@ -685,11 +683,9 @@
         <v>1405095.9336</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>1.89</v>
       </c>
@@ -726,11 +722,9 @@
         <v>1385119.8274</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>1.89</v>
       </c>
@@ -17537,7 +17531,7 @@
         <v>2356504.281161261</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
@@ -17545,11 +17539,11 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1</v>
+        <v>1.043148148148148</v>
       </c>
       <c r="M440" t="inlineStr"/>
     </row>
@@ -17576,17 +17570,11 @@
         <v>2314193.623561261</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17615,17 +17603,11 @@
         <v>2104893.615561261</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17657,14 +17639,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17696,14 +17672,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17732,17 +17702,11 @@
         <v>2279777.818761261</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17771,17 +17735,11 @@
         <v>2311735.451961261</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17810,17 +17768,11 @@
         <v>2278713.396361261</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17849,17 +17801,11 @@
         <v>2105149.806161261</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17891,14 +17837,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17930,14 +17870,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17969,14 +17903,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18008,14 +17936,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18047,14 +17969,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18086,14 +18002,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18125,14 +18035,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18164,14 +18068,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18203,14 +18101,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18239,17 +18131,11 @@
         <v>2082964.448261261</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18278,17 +18164,11 @@
         <v>2044146.744261261</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18317,17 +18197,11 @@
         <v>2067830.351961261</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18356,17 +18230,11 @@
         <v>2107875.069961261</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18395,17 +18263,11 @@
         <v>2136458.486061261</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18434,17 +18296,11 @@
         <v>1199690.43296126</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18473,17 +18329,11 @@
         <v>1153317.502661261</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18515,14 +18365,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18554,14 +18398,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18593,14 +18431,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18632,14 +18464,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18671,14 +18497,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18710,14 +18530,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18749,14 +18563,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18788,14 +18596,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18827,14 +18629,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18866,14 +18662,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18905,14 +18695,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18944,14 +18728,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18983,14 +18761,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19022,14 +18794,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19061,14 +18827,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19100,14 +18860,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19139,14 +18893,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19178,14 +18926,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19217,14 +18959,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19256,14 +18992,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19295,14 +19025,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19334,14 +19058,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19373,14 +19091,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19412,14 +19124,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19451,14 +19157,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19490,14 +19190,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19529,14 +19223,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19568,14 +19256,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19607,14 +19289,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19646,14 +19322,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19685,14 +19355,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19724,14 +19388,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19763,14 +19421,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19802,14 +19454,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19841,14 +19487,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19880,14 +19520,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19919,14 +19553,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19958,14 +19586,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19997,14 +19619,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20036,14 +19652,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20075,14 +19685,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20114,14 +19718,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20153,14 +19751,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20192,14 +19784,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20231,14 +19817,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20270,14 +19850,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20309,14 +19883,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20348,14 +19916,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20387,14 +19949,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20426,14 +19982,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20465,14 +20015,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20504,14 +20048,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20543,14 +20081,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20582,14 +20114,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20621,14 +20147,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20657,17 +20177,11 @@
         <v>533716.0597612605</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20699,14 +20213,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20738,14 +20246,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20777,14 +20279,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20816,14 +20312,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20855,14 +20345,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20894,14 +20378,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20933,14 +20411,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20972,14 +20444,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21011,14 +20477,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21050,14 +20510,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21089,14 +20543,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21128,14 +20576,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21167,14 +20609,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21206,14 +20642,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21245,14 +20675,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21284,14 +20708,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21323,14 +20741,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21362,14 +20774,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21401,14 +20807,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21440,14 +20840,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21479,14 +20873,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21518,14 +20906,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21557,14 +20939,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21596,14 +20972,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21635,14 +21005,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21674,14 +21038,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21713,14 +21071,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21752,14 +21104,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21791,14 +21137,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21830,14 +21170,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21869,14 +21203,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21908,14 +21236,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21947,14 +21269,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21986,14 +21302,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22025,14 +21335,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22064,14 +21368,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22103,14 +21401,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22142,14 +21434,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22181,14 +21467,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22220,14 +21500,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22259,14 +21533,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22298,14 +21566,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22337,14 +21599,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22376,14 +21632,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22415,14 +21665,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22454,14 +21698,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22493,14 +21731,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22532,14 +21764,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22571,14 +21797,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22610,14 +21830,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22649,14 +21863,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22688,14 +21896,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22727,14 +21929,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22766,14 +21962,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22805,14 +21995,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22844,14 +22028,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22883,14 +22061,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22922,14 +22094,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22961,14 +22127,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23000,14 +22160,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23039,14 +22193,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23078,14 +22226,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23117,14 +22259,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23153,17 +22289,11 @@
         <v>768557.4995612608</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23192,17 +22322,11 @@
         <v>817912.1140612608</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23231,17 +22355,11 @@
         <v>774522.2575612608</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23273,14 +22391,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23312,14 +22424,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23351,14 +22457,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23390,14 +22490,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23429,14 +22523,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23468,14 +22556,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23507,14 +22589,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23546,14 +22622,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23585,14 +22655,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23624,14 +22688,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23663,14 +22721,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23702,14 +22754,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23741,14 +22787,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23780,14 +22820,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23819,14 +22853,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23855,17 +22883,11 @@
         <v>736172.7195612609</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23894,17 +22916,11 @@
         <v>690224.7898612609</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23933,17 +22949,11 @@
         <v>720476.3874612609</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23972,17 +22982,11 @@
         <v>688718.6428612609</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24011,17 +23015,11 @@
         <v>645407.3580612609</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24050,17 +23048,11 @@
         <v>673175.2160612609</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24089,17 +23081,11 @@
         <v>628545.5431612609</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24128,17 +23114,11 @@
         <v>590825.0799612609</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24167,17 +23147,11 @@
         <v>630961.0278612609</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24206,17 +23180,11 @@
         <v>614937.230761261</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24245,17 +23213,11 @@
         <v>661762.475961261</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24284,17 +23246,11 @@
         <v>723552.454361261</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24323,17 +23279,11 @@
         <v>649895.497661261</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24362,17 +23312,11 @@
         <v>700644.0038612611</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24401,17 +23345,11 @@
         <v>667610.147261261</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24443,14 +23381,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24482,14 +23414,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24521,14 +23447,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24560,14 +23480,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24599,14 +23513,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24638,14 +23546,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24677,14 +23579,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24716,14 +23612,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24755,14 +23645,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24794,14 +23678,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24833,14 +23711,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24872,14 +23744,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24911,14 +23777,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24950,14 +23810,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24989,14 +23843,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25028,14 +23876,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25067,14 +23909,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25106,14 +23942,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25145,14 +23975,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25184,14 +24008,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25223,14 +24041,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25262,14 +24074,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25301,14 +24107,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25340,14 +24140,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25379,14 +24173,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25418,14 +24206,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25457,14 +24239,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25496,14 +24272,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25535,14 +24305,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25574,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25613,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25652,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25691,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25730,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25769,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25808,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25847,14 +24569,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25886,14 +24602,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25925,14 +24635,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25964,14 +24668,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26003,14 +24701,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26042,14 +24734,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26081,14 +24767,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26120,14 +24800,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26159,14 +24833,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26198,14 +24866,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26237,14 +24899,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26276,14 +24932,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26315,14 +24965,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26354,14 +24998,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26393,14 +25031,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26432,14 +25064,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -26471,14 +25097,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26510,14 +25130,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26549,14 +25163,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26588,14 +25196,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -26627,14 +25229,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -26666,14 +25262,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -26705,14 +25295,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -26744,14 +25328,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -26783,14 +25361,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26822,14 +25394,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26861,14 +25427,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26900,14 +25460,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26939,14 +25493,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26978,14 +25526,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -27017,14 +25559,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -27056,14 +25592,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -27095,14 +25625,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -27134,14 +25658,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -27173,14 +25691,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -27212,14 +25724,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -27251,14 +25757,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -27290,14 +25790,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -27329,14 +25823,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -27368,14 +25856,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -27407,14 +25889,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -27446,14 +25922,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -27485,14 +25955,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27524,14 +25988,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27563,14 +26021,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27602,14 +26054,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -27641,14 +26087,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -27680,14 +26120,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -27719,14 +26153,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -27755,17 +26183,11 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -27794,17 +26216,11 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -27833,17 +26249,11 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -27872,17 +26282,11 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -27911,17 +26315,11 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27950,17 +26348,11 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27992,14 +26384,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -28031,14 +26417,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -28070,14 +26450,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -28109,14 +26483,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -28148,14 +26516,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -28187,14 +26549,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -28226,14 +26582,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -28265,14 +26615,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -28304,14 +26648,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -28343,14 +26681,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -28382,14 +26714,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -28421,14 +26747,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -28460,14 +26780,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -28499,14 +26813,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -28538,14 +26846,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -28577,14 +26879,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -28616,14 +26912,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -28655,14 +26945,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28694,14 +26978,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28733,14 +27011,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28772,14 +27044,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28811,14 +27077,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28850,14 +27110,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28889,14 +27143,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28928,14 +27176,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28967,14 +27209,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -29006,14 +27242,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -29045,14 +27275,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -29084,14 +27308,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -29123,14 +27341,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -29162,14 +27374,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -29201,14 +27407,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -29240,14 +27440,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -29279,14 +27473,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -29318,14 +27506,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -29357,14 +27539,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -29396,14 +27572,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -29435,14 +27605,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -29474,14 +27638,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -29513,14 +27671,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -29552,14 +27704,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29591,14 +27737,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29630,14 +27770,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29669,14 +27803,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29708,14 +27836,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29747,14 +27869,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29786,14 +27902,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29825,14 +27935,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29864,14 +27968,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29903,14 +28001,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -29942,14 +28034,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -29981,14 +28067,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -30020,14 +28100,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -30059,14 +28133,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -30098,14 +28166,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -30137,14 +28199,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -30176,14 +28232,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -30215,14 +28265,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -30254,14 +28298,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -30293,14 +28331,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -30332,14 +28364,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -30371,14 +28397,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -30410,14 +28430,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -30449,14 +28463,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -30488,14 +28496,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -30527,14 +28529,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -30566,14 +28562,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -30605,14 +28595,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -30644,14 +28628,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -30683,14 +28661,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -30722,14 +28694,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -30761,14 +28727,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -30800,14 +28760,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -30839,14 +28793,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -30878,14 +28826,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -30917,14 +28859,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -30956,14 +28892,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -30995,14 +28925,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -31034,14 +28958,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -31073,14 +28991,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -31112,14 +29024,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -31151,14 +29057,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -31190,14 +29090,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -31229,14 +29123,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -31268,14 +29156,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -31307,14 +29189,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -31346,14 +29222,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -31385,14 +29255,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -31424,14 +29288,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -31463,14 +29321,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -31502,14 +29354,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -31541,14 +29387,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -31580,14 +29420,8 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -31619,14 +29453,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -31658,14 +29486,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -31697,14 +29519,8 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -31736,14 +29552,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -31775,14 +29585,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -31814,14 +29618,8 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -31853,14 +29651,8 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -31892,14 +29684,8 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -31931,14 +29717,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -31970,14 +29750,8 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -32009,14 +29783,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -32048,14 +29816,8 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -32087,14 +29849,8 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -32126,14 +29882,8 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -32165,14 +29915,8 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -32204,14 +29948,8 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -32243,14 +29981,8 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -32282,14 +30014,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -32321,14 +30047,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -32360,14 +30080,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -32399,14 +30113,8 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -32438,14 +30146,8 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -32477,14 +30179,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -32516,14 +30212,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -32555,14 +30245,8 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -32594,14 +30278,8 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -32633,14 +30311,8 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -32672,14 +30344,8 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -32711,14 +30377,8 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -32750,14 +30410,8 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -32789,14 +30443,8 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -32828,14 +30476,8 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -32867,14 +30509,8 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -32906,14 +30542,8 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -32945,14 +30575,8 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -32984,14 +30608,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -33023,14 +30641,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -33062,14 +30674,8 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -33101,14 +30707,8 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -33140,14 +30740,8 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -33179,14 +30773,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -33218,14 +30806,8 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -33257,14 +30839,8 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -33296,14 +30872,8 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -33335,14 +30905,8 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -33374,14 +30938,8 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -33413,14 +30971,8 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -33452,14 +31004,8 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -33491,14 +31037,8 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -33530,14 +31070,8 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -33569,14 +31103,8 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -33608,14 +31136,8 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -33647,14 +31169,8 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -33686,14 +31202,8 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -33725,14 +31235,8 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -33764,14 +31268,8 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -33803,14 +31301,8 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -33842,14 +31334,8 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -33881,14 +31367,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -33920,14 +31400,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -33959,14 +31433,8 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -33998,14 +31466,8 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -34037,14 +31499,8 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -34076,14 +31532,8 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -34115,14 +31565,8 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -34154,14 +31598,8 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -34193,14 +31631,8 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -34232,14 +31664,8 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -34271,14 +31697,8 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -34310,14 +31730,8 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -34349,14 +31763,8 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -34388,14 +31796,8 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -34427,14 +31829,8 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -34466,14 +31862,8 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -34505,14 +31895,8 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -34544,14 +31928,8 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -34583,14 +31961,8 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -34622,14 +31994,8 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -34661,14 +32027,8 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -34700,14 +32060,8 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -34739,14 +32093,8 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -34778,14 +32126,8 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -34817,14 +32159,8 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -34856,14 +32192,8 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -34895,14 +32225,8 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -34934,14 +32258,8 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -34973,14 +32291,8 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -35012,14 +32324,8 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -35051,14 +32357,8 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -35090,14 +32390,8 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -35129,14 +32423,8 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -35168,14 +32456,8 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -35207,14 +32489,8 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -35246,14 +32522,8 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -35285,14 +32555,8 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -35324,14 +32588,8 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -35363,14 +32621,8 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -35402,14 +32654,8 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -35441,14 +32687,8 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -35480,14 +32720,8 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -35519,14 +32753,8 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -35558,14 +32786,8 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -35597,14 +32819,8 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -35636,14 +32852,8 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -35675,14 +32885,8 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -35714,14 +32918,8 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -35753,14 +32951,8 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -35789,17 +32981,11 @@
         <v>5518476.61316126</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -35828,17 +33014,11 @@
         <v>6994984.80676126</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -35867,17 +33047,11 @@
         <v>7105600.58946126</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -35909,14 +33083,8 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -35948,14 +33116,8 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -35987,14 +33149,8 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -36026,14 +33182,8 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -36065,14 +33215,8 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -36104,14 +33248,8 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -36143,14 +33281,8 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -36182,14 +33314,8 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -36221,14 +33347,8 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -36260,14 +33380,8 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -36299,14 +33413,8 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -36338,14 +33446,8 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -36377,14 +33479,8 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -36416,14 +33512,8 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -36455,14 +33545,8 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -36494,14 +33578,8 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -36533,14 +33611,8 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -36572,14 +33644,8 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -36608,23 +33674,15 @@
         <v>6395813.305296961</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
-        <v>1.068544973544974</v>
-      </c>
-      <c r="M929" t="n">
-        <v>1.016931216931217</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" s="1" t="n">
@@ -36649,7 +33707,7 @@
         <v>6809568.170396961</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -36682,7 +33740,7 @@
         <v>6298554.962896962</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -36715,7 +33773,7 @@
         <v>6257510.199896961</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -36748,7 +33806,7 @@
         <v>6207864.204296961</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -36781,7 +33839,7 @@
         <v>6229314.786596961</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -36814,7 +33872,7 @@
         <v>5931612.114596961</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -36847,7 +33905,7 @@
         <v>5972465.678996961</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -36880,7 +33938,7 @@
         <v>6020686.137796961</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -36913,7 +33971,7 @@
         <v>5335111.297896961</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -36946,7 +34004,7 @@
         <v>5386479.991396961</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -37243,7 +34301,7 @@
         <v>5824941.47319696</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -37276,7 +34334,7 @@
         <v>5769965.01979696</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -37309,7 +34367,7 @@
         <v>5818248.86809696</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -37342,7 +34400,7 @@
         <v>5576369.55339696</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -37375,7 +34433,7 @@
         <v>5559731.28929696</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -37474,7 +34532,7 @@
         <v>5667467.772396959</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -37507,7 +34565,7 @@
         <v>5667467.772396959</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -37540,7 +34598,7 @@
         <v>5713781.75239696</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -37573,7 +34631,7 @@
         <v>5646091.488396959</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -37606,7 +34664,7 @@
         <v>5724061.691396959</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -37672,7 +34730,7 @@
         <v>5635660.117696959</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -37705,7 +34763,7 @@
         <v>5635660.117696959</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -37738,7 +34796,7 @@
         <v>5676220.009696959</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -37771,7 +34829,7 @@
         <v>5625810.145996959</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -37804,7 +34862,7 @@
         <v>5674894.891396959</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -37837,7 +34895,7 @@
         <v>5634620.957796959</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -37870,7 +34928,7 @@
         <v>5602461.471196959</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -37903,7 +34961,7 @@
         <v>5650240.581496959</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -37936,7 +34994,7 @@
         <v>5610383.293696959</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -37969,7 +35027,7 @@
         <v>5610383.293696959</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -38002,7 +35060,7 @@
         <v>5647293.949096958</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -38035,7 +35093,7 @@
         <v>5698267.733996958</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -38068,7 +35126,7 @@
         <v>5659541.302496959</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -38101,7 +35159,7 @@
         <v>5659541.302496959</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -38134,7 +35192,7 @@
         <v>5621162.480696958</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -38167,7 +35225,7 @@
         <v>5661075.138596958</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -38200,7 +35258,7 @@
         <v>5631235.865196958</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -38233,7 +35291,7 @@
         <v>5631235.865196958</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -38266,7 +35324,7 @@
         <v>5669798.057296958</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -38299,7 +35357,7 @@
         <v>5614992.780396958</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -38332,7 +35390,7 @@
         <v>5554446.673596958</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -38365,7 +35423,7 @@
         <v>5601413.349896958</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -38398,7 +35456,7 @@
         <v>5533292.976496958</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -38431,7 +35489,7 @@
         <v>5575327.910196958</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -38464,7 +35522,7 @@
         <v>5542645.700496959</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -38497,7 +35555,7 @@
         <v>5588752.748196959</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -38530,7 +35588,7 @@
         <v>5640908.635796959</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -38563,7 +35621,7 @@
         <v>5640908.635796959</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -38596,7 +35654,7 @@
         <v>5675814.333796958</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -38629,7 +35687,7 @@
         <v>6021720.204116445</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -38662,7 +35720,7 @@
         <v>5982664.386216445</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -38695,7 +35753,7 @@
         <v>5915166.368416445</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -38728,7 +35786,7 @@
         <v>5958166.690816445</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -38761,7 +35819,7 @@
         <v>6134775.747316445</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -38794,7 +35852,7 @@
         <v>6062841.773516445</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -38827,7 +35885,7 @@
         <v>6007602.277216446</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -38860,7 +35918,7 @@
         <v>6027553.737616446</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -38893,7 +35951,7 @@
         <v>6065222.856916446</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -38926,7 +35984,7 @@
         <v>6027328.495116446</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -38959,7 +36017,7 @@
         <v>5988679.141716446</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -38992,7 +36050,7 @@
         <v>5988679.141716446</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -39025,7 +36083,7 @@
         <v>6033802.529016445</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -39058,7 +36116,7 @@
         <v>6084747.169416445</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -39091,7 +36149,7 @@
         <v>6084747.169416445</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -39124,7 +36182,7 @@
         <v>6031729.083916445</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -39157,7 +36215,7 @@
         <v>5985587.450416445</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -39190,7 +36248,7 @@
         <v>5985587.450416445</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -39223,7 +36281,7 @@
         <v>5985587.450416445</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -39256,7 +36314,7 @@
         <v>6014512.233816445</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -39289,7 +36347,7 @@
         <v>5969285.664416444</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -39322,7 +36380,7 @@
         <v>5969285.664416444</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -39355,7 +36413,7 @@
         <v>6013578.890316444</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -39388,7 +36446,7 @@
         <v>5967389.755216445</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -39421,7 +36479,7 @@
         <v>5418615.831616445</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -39454,7 +36512,7 @@
         <v>5453957.189716444</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -39487,7 +36545,7 @@
         <v>5468271.890916444</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -39520,7 +36578,7 @@
         <v>5514828.456516445</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -39553,7 +36611,7 @@
         <v>5514828.456516445</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -45306,6 +42364,6 @@
       <c r="M1192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest DAC.xlsx
+++ b/BackTest/2020-01-21 BackTest DAC.xlsx
@@ -17531,7 +17531,7 @@
         <v>2356504.281161261</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
@@ -17539,11 +17539,11 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1.043148148148148</v>
+        <v>1</v>
       </c>
       <c r="M440" t="inlineStr"/>
     </row>
@@ -17570,11 +17570,17 @@
         <v>2314193.623561261</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17603,11 +17609,17 @@
         <v>2104893.615561261</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17639,8 +17651,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17672,8 +17690,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17702,11 +17726,17 @@
         <v>2279777.818761261</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17735,11 +17765,17 @@
         <v>2311735.451961261</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17768,11 +17804,17 @@
         <v>2278713.396361261</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17801,11 +17843,17 @@
         <v>2105149.806161261</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17837,8 +17885,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17870,8 +17924,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17903,8 +17963,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17936,8 +18002,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17969,8 +18041,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18002,8 +18080,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18035,8 +18119,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18068,8 +18158,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18101,8 +18197,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18131,11 +18233,17 @@
         <v>2082964.448261261</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18164,11 +18272,17 @@
         <v>2044146.744261261</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18197,11 +18311,17 @@
         <v>2067830.351961261</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18230,11 +18350,17 @@
         <v>2107875.069961261</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18263,11 +18389,17 @@
         <v>2136458.486061261</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18296,11 +18428,17 @@
         <v>1199690.43296126</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18329,11 +18467,17 @@
         <v>1153317.502661261</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18365,8 +18509,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18398,8 +18548,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18431,8 +18587,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18464,8 +18626,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18497,8 +18665,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18530,8 +18704,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18563,8 +18743,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18596,8 +18782,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18629,8 +18821,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18662,8 +18860,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18695,8 +18899,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18728,8 +18938,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18761,8 +18977,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18794,8 +19016,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18827,8 +19055,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18860,8 +19094,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18893,8 +19133,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18926,8 +19172,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18959,8 +19211,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18992,8 +19250,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19025,8 +19289,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19058,8 +19328,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19091,8 +19367,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19124,8 +19406,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19157,8 +19445,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19190,8 +19484,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19223,8 +19523,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19256,8 +19562,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19289,8 +19601,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +19640,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19355,8 +19679,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19388,8 +19718,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19421,8 +19757,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +19796,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19487,8 +19835,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +19874,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19553,8 +19913,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19586,8 +19952,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19619,8 +19991,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19652,8 +20030,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19685,8 +20069,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19718,8 +20108,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19751,8 +20147,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19784,8 +20186,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19817,8 +20225,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19850,8 +20264,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +20303,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19916,8 +20342,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19949,8 +20381,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19982,8 +20420,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +20459,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20048,8 +20498,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20081,8 +20537,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20114,8 +20576,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20147,8 +20615,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20177,11 +20651,17 @@
         <v>533716.0597612605</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20213,8 +20693,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20246,8 +20732,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20279,8 +20771,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20312,8 +20810,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20345,8 +20849,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20378,8 +20888,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20411,8 +20927,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20444,8 +20966,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20477,8 +21005,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20510,8 +21044,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20543,8 +21083,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20576,8 +21122,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20609,8 +21161,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20642,8 +21200,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20675,8 +21239,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20708,8 +21278,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20741,8 +21317,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20774,8 +21356,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20807,8 +21395,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20840,8 +21434,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20873,8 +21473,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20906,8 +21512,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20939,8 +21551,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20972,8 +21590,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21005,8 +21629,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21038,8 +21668,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21071,8 +21707,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21104,8 +21746,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21137,8 +21785,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21170,8 +21824,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21203,8 +21863,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21236,8 +21902,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21269,8 +21941,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21302,8 +21980,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21335,8 +22019,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21368,8 +22058,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21401,8 +22097,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21434,8 +22136,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21467,8 +22175,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21500,8 +22214,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21533,8 +22253,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21566,8 +22292,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21599,8 +22331,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21632,8 +22370,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21665,8 +22409,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21698,8 +22448,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21731,8 +22487,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21764,8 +22526,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21797,8 +22565,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21830,8 +22604,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21863,8 +22643,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21896,8 +22682,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21929,8 +22721,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21962,8 +22760,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21995,8 +22799,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22028,8 +22838,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22061,8 +22877,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22094,8 +22916,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22127,8 +22955,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22160,8 +22994,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22193,8 +23033,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22226,8 +23072,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22259,8 +23111,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22289,11 +23147,17 @@
         <v>768557.4995612608</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22322,11 +23186,17 @@
         <v>817912.1140612608</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22355,11 +23225,17 @@
         <v>774522.2575612608</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22391,8 +23267,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22424,8 +23306,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22457,8 +23345,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22490,8 +23384,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22523,8 +23423,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22556,8 +23462,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22589,8 +23501,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22622,8 +23540,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22655,8 +23579,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22688,8 +23618,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22721,8 +23657,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22754,8 +23696,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22787,8 +23735,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22820,8 +23774,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22853,8 +23813,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22883,11 +23849,17 @@
         <v>736172.7195612609</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22916,11 +23888,17 @@
         <v>690224.7898612609</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22949,11 +23927,17 @@
         <v>720476.3874612609</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22982,11 +23966,17 @@
         <v>688718.6428612609</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23015,11 +24005,17 @@
         <v>645407.3580612609</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23048,11 +24044,17 @@
         <v>673175.2160612609</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23081,11 +24083,17 @@
         <v>628545.5431612609</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23114,11 +24122,17 @@
         <v>590825.0799612609</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23147,11 +24161,17 @@
         <v>630961.0278612609</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23180,11 +24200,17 @@
         <v>614937.230761261</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23213,11 +24239,17 @@
         <v>661762.475961261</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23246,11 +24278,17 @@
         <v>723552.454361261</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23279,11 +24317,17 @@
         <v>649895.497661261</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23312,11 +24356,17 @@
         <v>700644.0038612611</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23345,11 +24395,17 @@
         <v>667610.147261261</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23381,8 +24437,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23414,8 +24476,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23447,8 +24515,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23480,8 +24554,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23513,8 +24593,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23546,8 +24632,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23579,8 +24671,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23612,8 +24710,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23645,8 +24749,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23678,8 +24788,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23711,8 +24827,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23744,8 +24866,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23777,8 +24905,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23810,8 +24944,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23843,8 +24983,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23876,8 +25022,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23909,8 +25061,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23942,8 +25100,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23975,8 +25139,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24008,8 +25178,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24041,8 +25217,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24074,8 +25256,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24107,8 +25295,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24140,8 +25334,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24173,8 +25373,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24206,8 +25412,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24239,8 +25451,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24272,8 +25490,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24305,8 +25529,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24338,8 +25568,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24371,8 +25607,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24404,8 +25646,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24437,8 +25685,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24470,8 +25724,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24503,8 +25763,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24536,8 +25802,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24569,8 +25841,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24602,8 +25880,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24635,8 +25919,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24668,8 +25958,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24701,8 +25997,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24734,8 +26036,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24767,8 +26075,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24800,8 +26114,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24833,8 +26153,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24866,8 +26192,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24899,8 +26231,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24932,8 +26270,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24965,8 +26309,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24998,8 +26348,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25031,8 +26387,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25064,8 +26426,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25097,8 +26465,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25130,8 +26504,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25163,8 +26543,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25196,8 +26582,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25229,8 +26621,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25262,8 +26660,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25295,8 +26699,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25328,8 +26738,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25361,8 +26777,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25394,8 +26816,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25427,8 +26855,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25460,8 +26894,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25493,8 +26933,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25526,8 +26972,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25559,8 +27011,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25592,8 +27050,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25625,8 +27089,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25658,8 +27128,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25691,8 +27167,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25724,8 +27206,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25757,8 +27245,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25790,8 +27284,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25823,8 +27323,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25856,8 +27362,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25889,8 +27401,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25922,8 +27440,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25955,8 +27479,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25988,8 +27518,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26021,8 +27557,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26054,8 +27596,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26087,8 +27635,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26120,8 +27674,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26153,8 +27713,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26183,11 +27749,17 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26216,11 +27788,17 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26249,11 +27827,17 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26282,11 +27866,17 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26315,11 +27905,17 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26348,11 +27944,17 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26384,8 +27986,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26417,8 +28025,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26450,8 +28064,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26483,8 +28103,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26516,8 +28142,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26549,8 +28181,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26582,8 +28220,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26615,8 +28259,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26648,8 +28298,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26681,8 +28337,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26714,8 +28376,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26747,8 +28415,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26780,8 +28454,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26813,8 +28493,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26846,8 +28532,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26879,8 +28571,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26912,8 +28610,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26945,8 +28649,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26978,8 +28688,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27011,8 +28727,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27044,8 +28766,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27077,8 +28805,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27110,8 +28844,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27143,8 +28883,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27176,8 +28922,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27209,8 +28961,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27242,8 +29000,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27275,8 +29039,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27308,8 +29078,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27341,8 +29117,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27374,8 +29156,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27407,8 +29195,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27440,8 +29234,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27473,8 +29273,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27506,8 +29312,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27539,8 +29351,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27572,8 +29390,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27605,8 +29429,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27638,8 +29468,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27671,8 +29507,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27704,8 +29546,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27737,8 +29585,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27770,8 +29624,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27803,8 +29663,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27836,8 +29702,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27869,8 +29741,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27902,8 +29780,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27935,8 +29819,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27968,8 +29858,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28001,8 +29897,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28034,8 +29936,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28067,8 +29975,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28100,8 +30014,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28133,8 +30053,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28166,8 +30092,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28199,8 +30131,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28232,8 +30170,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28265,8 +30209,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28298,8 +30248,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28331,8 +30287,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28364,8 +30326,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28397,8 +30365,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28430,8 +30404,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28463,8 +30443,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28496,8 +30482,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28529,8 +30521,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28562,8 +30560,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28595,8 +30599,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28628,8 +30638,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28661,8 +30677,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28694,8 +30716,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28727,8 +30755,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28760,8 +30794,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28793,8 +30833,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28826,8 +30872,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28859,8 +30911,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28892,8 +30950,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28925,8 +30989,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28958,8 +31028,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28991,8 +31067,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -29024,8 +31106,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -29057,8 +31145,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -29090,8 +31184,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -29123,8 +31223,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -29156,8 +31262,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29189,8 +31301,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29222,8 +31340,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29255,8 +31379,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29288,8 +31418,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29321,8 +31457,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29354,8 +31496,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29387,8 +31535,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29420,8 +31574,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29453,8 +31613,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29486,8 +31652,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29519,8 +31691,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29552,8 +31730,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -29585,8 +31769,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29618,8 +31808,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29651,8 +31847,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -29684,8 +31886,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -29717,8 +31925,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29750,8 +31964,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29783,8 +32003,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29816,8 +32042,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29849,8 +32081,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29882,8 +32120,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29915,8 +32159,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29948,8 +32198,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29981,8 +32237,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -30014,8 +32276,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -30047,8 +32315,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -30080,8 +32354,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30113,8 +32393,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30146,8 +32432,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30179,8 +32471,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30212,8 +32510,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30245,8 +32549,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30278,8 +32588,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30311,8 +32627,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30344,8 +32666,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30377,8 +32705,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30410,8 +32744,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30443,8 +32783,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30476,8 +32822,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30509,8 +32861,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30542,8 +32900,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30575,8 +32939,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30608,8 +32978,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30641,8 +33017,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30674,8 +33056,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30707,8 +33095,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30740,8 +33134,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30773,8 +33173,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30806,8 +33212,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30839,8 +33251,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30872,8 +33290,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30905,8 +33329,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30938,8 +33368,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30971,8 +33407,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -31004,8 +33446,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -31037,8 +33485,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -31070,8 +33524,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -31103,8 +33563,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31136,8 +33602,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31169,8 +33641,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31202,8 +33680,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31235,8 +33719,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31268,8 +33758,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31301,8 +33797,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31334,8 +33836,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31367,8 +33875,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31400,8 +33914,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31433,8 +33953,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31466,8 +33992,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31499,8 +34031,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31532,8 +34070,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31565,8 +34109,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31598,8 +34148,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31631,8 +34187,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31664,8 +34226,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31697,8 +34265,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31730,8 +34304,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31763,8 +34343,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31796,8 +34382,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31829,8 +34421,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31862,8 +34460,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31895,8 +34499,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31928,8 +34538,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31961,8 +34577,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31994,8 +34616,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32027,8 +34655,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32060,8 +34694,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32093,8 +34733,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32126,8 +34772,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32159,8 +34811,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32192,8 +34850,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32225,8 +34889,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32258,8 +34928,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32291,8 +34967,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32324,8 +35006,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32357,8 +35045,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32390,8 +35084,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32423,8 +35123,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32456,8 +35162,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32489,8 +35201,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32522,8 +35240,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32555,8 +35279,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32588,8 +35318,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32621,8 +35357,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32654,8 +35396,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32687,8 +35435,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32720,8 +35474,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32753,8 +35513,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32786,8 +35552,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32819,8 +35591,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32852,8 +35630,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32885,8 +35669,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32918,8 +35708,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32951,8 +35747,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32981,11 +35783,17 @@
         <v>5518476.61316126</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -33014,11 +35822,17 @@
         <v>6994984.80676126</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -33047,11 +35861,17 @@
         <v>7105600.58946126</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -33083,8 +35903,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -33116,8 +35942,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -33146,15 +35978,23 @@
         <v>7594062.53256126</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
+        <v>1.082830687830688</v>
+      </c>
+      <c r="M913" t="n">
+        <v>1.016931216931217</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="1" t="n">
@@ -33179,7 +36019,7 @@
         <v>6855931.60096126</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33410,7 +36250,7 @@
         <v>6811850.47196126</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33443,7 +36283,7 @@
         <v>6811850.47196126</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33476,7 +36316,7 @@
         <v>7026456.35516126</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33542,7 +36382,7 @@
         <v>7251968.561096961</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33575,7 +36415,7 @@
         <v>7289312.322396961</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33608,7 +36448,7 @@
         <v>6803514.707796961</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33641,7 +36481,7 @@
         <v>6440478.734796961</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33674,7 +36514,7 @@
         <v>6395813.305296961</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33707,7 +36547,7 @@
         <v>6809568.170396961</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33740,7 +36580,7 @@
         <v>6298554.962896962</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33773,7 +36613,7 @@
         <v>6257510.199896961</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33806,7 +36646,7 @@
         <v>6207864.204296961</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33839,7 +36679,7 @@
         <v>6229314.786596961</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33872,7 +36712,7 @@
         <v>5931612.114596961</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33905,7 +36745,7 @@
         <v>5972465.678996961</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33938,7 +36778,7 @@
         <v>6020686.137796961</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33971,7 +36811,7 @@
         <v>5335111.297896961</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34004,7 +36844,7 @@
         <v>5386479.991396961</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34136,7 +36976,7 @@
         <v>5946866.734196961</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34202,7 +37042,7 @@
         <v>5790173.727596961</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34466,7 +37306,7 @@
         <v>5613640.951096959</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34499,7 +37339,7 @@
         <v>5597675.855296959</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
